--- a/Error-codes.xlsx
+++ b/Error-codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONDC\Tanya\ONDC-SRV-Specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\ONDC\ONDC-SRV-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A27B25-5DD2-4FE7-8C47-00BE5B7E8F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6AF4B-BD0E-4D4F-894C-D39AB2C92C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cancellation" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="170">
   <si>
     <t>Code</t>
   </si>
@@ -53,18 +53,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Seller App</t>
-  </si>
-  <si>
     <t>Used in error object in /on_select</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Valid city code needs to be passed for search</t>
   </si>
   <si>
-    <t>Buyer App</t>
-  </si>
-  <si>
     <t>Invalid catalog</t>
   </si>
   <si>
@@ -215,39 +200,21 @@
     <t>Order Confirm Failure</t>
   </si>
   <si>
-    <t>Buyer App cannot confirm order as no response from Seller App</t>
-  </si>
-  <si>
     <t>Terms and Conditions unacceptable</t>
   </si>
   <si>
-    <t>Seller App terms and conditions not acceptable to Buyer App</t>
-  </si>
-  <si>
     <t>Order terminated</t>
   </si>
   <si>
-    <t>Order terminated as Seller App did not accept terms and conditions proposed by Buyer App</t>
-  </si>
-  <si>
     <t>Invalid request</t>
   </si>
   <si>
     <t>Invalid request does not meet API contract specifications</t>
   </si>
   <si>
-    <t>When Seller App is unable to find the provider id sent by the Buyer App</t>
-  </si>
-  <si>
-    <t>When Seller App is unable to find the provider location id sent by the Buyer App</t>
-  </si>
-  <si>
     <t>Provider category not found</t>
   </si>
   <si>
-    <t>When Seller App is unable to find the provider category id sent by the Buyer App</t>
-  </si>
-  <si>
     <t>Unable to find details for item, may have been deleted</t>
   </si>
   <si>
@@ -296,9 +263,6 @@
     <t>Invalid rating value</t>
   </si>
   <si>
-    <t>When the Seller App receives an invalid value as the rating value in value</t>
-  </si>
-  <si>
     <t>Merchant unavailable</t>
   </si>
   <si>
@@ -314,12 +278,6 @@
     <t>Order Confirm Error</t>
   </si>
   <si>
-    <t>Seller App is unable to confirm the order</t>
-  </si>
-  <si>
-    <t>Seller App cannot confirm order as no response from Buyer App</t>
-  </si>
-  <si>
     <t>Merchant Inactive</t>
   </si>
   <si>
@@ -353,9 +311,6 @@
     <t>Item quantity unavailable</t>
   </si>
   <si>
-    <t>When the Seller App is unable to fulfill the required quantity for items in the order</t>
-  </si>
-  <si>
     <t>Quote unavailable</t>
   </si>
   <si>
@@ -413,33 +368,15 @@
     <t>Cancellation not possible</t>
   </si>
   <si>
-    <t>When the Seller App is unable to cancel the order due to it's cancellation policy</t>
-  </si>
-  <si>
     <t>Updation not possible</t>
   </si>
   <si>
-    <t>When the Seller App is unable to update the order due to it's updation policy</t>
-  </si>
-  <si>
     <t>Unsupported rating category</t>
   </si>
   <si>
-    <t>When the Seller App receives an entity to rate which is not supported</t>
-  </si>
-  <si>
     <t>Support unavailable</t>
   </si>
   <si>
-    <t>When the Seller App receives an object if for which it does not provide support</t>
-  </si>
-  <si>
-    <t>Buyer App terms and conditions not acceptable to Seller App</t>
-  </si>
-  <si>
-    <t>Order terminated as Buyer App did not accept terms proposed by Seller App</t>
-  </si>
-  <si>
     <t>Fulfillment not found</t>
   </si>
   <si>
@@ -447,13 +384,160 @@
   </si>
   <si>
     <t>Fulfillment has reached terminal state, cannot be updated</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>Offer return failure</t>
+  </si>
+  <si>
+    <t>BAP</t>
+  </si>
+  <si>
+    <t>Offer acceptance failure</t>
+  </si>
+  <si>
+    <t>Inventory mismatch</t>
+  </si>
+  <si>
+    <t>Selection failure</t>
+  </si>
+  <si>
+    <t>The selected service is no longer available or invalid.</t>
+  </si>
+  <si>
+    <t>Invalid location</t>
+  </si>
+  <si>
+    <t>The location details provided in the search request are not supported.</t>
+  </si>
+  <si>
+    <t>Invalid GPS coordinates</t>
+  </si>
+  <si>
+    <t>The seller returned an offer with invalid GPS coordinates</t>
+  </si>
+  <si>
+    <t>Invalid service schedule</t>
+  </si>
+  <si>
+    <t>The service schedule provided by the seller is invalid.</t>
+  </si>
+  <si>
+    <t>Price mismatch</t>
+  </si>
+  <si>
+    <t>The confirmed offer price does not match the selected offer price</t>
+  </si>
+  <si>
+    <t>Offer confirmation timeout</t>
+  </si>
+  <si>
+    <t>The BPP could not confirm the selected offer within the expected time.</t>
+  </si>
+  <si>
+    <t>No providers</t>
+  </si>
+  <si>
+    <t>No providers found in given location</t>
+  </si>
+  <si>
+    <t>Cancellation</t>
+  </si>
+  <si>
+    <t>Buyer cancelling order after its marked as completed</t>
+  </si>
+  <si>
+    <t>We don't provide this service in this location.</t>
+  </si>
+  <si>
+    <t>Payment Failure</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>With particular number of burners users can select particular number of dishes.</t>
+  </si>
+  <si>
+    <t>Service should be atleast of pre-described minimum amount</t>
+  </si>
+  <si>
+    <t>Price validation from Surge</t>
+  </si>
+  <si>
+    <t>When surge is applied price not getting refreshed</t>
+  </si>
+  <si>
+    <t>When the BPP receives an invalid value as the rating value in value</t>
+  </si>
+  <si>
+    <t>BPP is unable to confirm the order</t>
+  </si>
+  <si>
+    <t>When the BPP is unable to fulfill the required quantity for items in the order</t>
+  </si>
+  <si>
+    <t>When the BPP is unable to cancel the order due to it's cancellation policy</t>
+  </si>
+  <si>
+    <t>When the BPP is unable to update the order due to it's updation policy</t>
+  </si>
+  <si>
+    <t>When the BPP receives an entity to rate which is not supported</t>
+  </si>
+  <si>
+    <t>When the BPP receives an object if for which it does not provide support</t>
+  </si>
+  <si>
+    <t>BAP cannot confirm order as no response from BPP</t>
+  </si>
+  <si>
+    <t>BPP terms and conditions not acceptable to BAP</t>
+  </si>
+  <si>
+    <t>Order terminated as BPP did not accept terms and conditions proposed by BAP</t>
+  </si>
+  <si>
+    <t>When BPP is unable to find the provider id sent by the BAP</t>
+  </si>
+  <si>
+    <t>When BPP is unable to find the provider location id sent by the BAP</t>
+  </si>
+  <si>
+    <t>When BPP is unable to find the provider category id sent by the BAP</t>
+  </si>
+  <si>
+    <t>BPP cannot confirm order as no response from BAP</t>
+  </si>
+  <si>
+    <t>BAP terms and conditions not acceptable to BPP</t>
+  </si>
+  <si>
+    <t>Order terminated as BAP did not accept terms proposed by BPP</t>
+  </si>
+  <si>
+    <t>Sellers could not return offers to the BAP</t>
+  </si>
+  <si>
+    <t>BAPlication could not submit user selected offer to the seller</t>
+  </si>
+  <si>
+    <t>BAPlication detected a mismatch in available inventory for the requested service.</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,8 +545,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A3243"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C481F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +595,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -490,11 +610,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -503,6 +638,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247DC2D3-71CB-4267-8D11-117653A1F761}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -960,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93405F62-E538-4EAC-8717-0B01DC84D721}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -975,228 +1134,231 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>90001</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>90002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>90003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>10001</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>10002</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>20000</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>20001</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>20002</v>
       </c>
       <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>20005</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>20006</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>20007</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>20008</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>20009</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>21001</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1204,13 +1366,13 @@
         <v>21002</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1218,13 +1380,13 @@
         <v>21003</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1232,13 +1394,13 @@
         <v>22501</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1246,13 +1408,13 @@
         <v>22502</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1260,13 +1422,13 @@
         <v>22503</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1274,13 +1436,13 @@
         <v>22504</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1288,13 +1450,13 @@
         <v>22505</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1302,13 +1464,13 @@
         <v>22506</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1316,13 +1478,13 @@
         <v>22507</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1330,13 +1492,13 @@
         <v>22508</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1344,13 +1506,13 @@
         <v>23001</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1358,13 +1520,13 @@
         <v>23002</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1372,13 +1534,13 @@
         <v>25001</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1386,13 +1548,13 @@
         <v>27501</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1400,13 +1562,13 @@
         <v>27502</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1414,13 +1576,13 @@
         <v>30000</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1428,13 +1590,13 @@
         <v>30001</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1442,13 +1604,13 @@
         <v>30002</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1456,13 +1618,13 @@
         <v>30003</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1470,13 +1632,13 @@
         <v>30004</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1484,13 +1646,13 @@
         <v>30005</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1498,13 +1660,13 @@
         <v>30006</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1512,13 +1674,13 @@
         <v>30007</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1526,13 +1688,13 @@
         <v>30008</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1540,13 +1702,13 @@
         <v>30009</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1554,13 +1716,13 @@
         <v>30010</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1568,13 +1730,13 @@
         <v>30011</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1582,13 +1744,13 @@
         <v>30012</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1596,13 +1758,13 @@
         <v>30013</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1610,13 +1772,13 @@
         <v>30014</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1624,13 +1786,13 @@
         <v>30015</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1638,13 +1800,13 @@
         <v>30016</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1652,13 +1814,13 @@
         <v>30017</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1666,13 +1828,13 @@
         <v>30018</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1680,13 +1842,13 @@
         <v>30019</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1694,13 +1856,13 @@
         <v>30020</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1708,13 +1870,13 @@
         <v>30021</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1722,13 +1884,13 @@
         <v>30022</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1736,13 +1898,13 @@
         <v>30023</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1750,13 +1912,13 @@
         <v>31001</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1764,13 +1926,13 @@
         <v>31002</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1778,13 +1940,13 @@
         <v>31003</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1792,13 +1954,13 @@
         <v>31004</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1806,13 +1968,13 @@
         <v>40000</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1820,13 +1982,13 @@
         <v>40001</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1834,13 +1996,13 @@
         <v>40002</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1848,13 +2010,13 @@
         <v>40003</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1862,13 +2024,13 @@
         <v>40004</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1876,13 +2038,13 @@
         <v>40005</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1890,13 +2052,13 @@
         <v>40006</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1904,13 +2066,13 @@
         <v>40007</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1918,13 +2080,13 @@
         <v>40008</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1932,13 +2094,13 @@
         <v>40009</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1946,13 +2108,13 @@
         <v>40010</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1960,13 +2122,13 @@
         <v>40011</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1974,13 +2136,13 @@
         <v>41001</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1988,13 +2150,13 @@
         <v>50000</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2002,13 +2164,13 @@
         <v>50001</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2016,13 +2178,13 @@
         <v>50002</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2030,13 +2192,13 @@
         <v>50003</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2044,13 +2206,13 @@
         <v>50004</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2058,13 +2220,13 @@
         <v>50005</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2072,13 +2234,13 @@
         <v>50006</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2086,31 +2248,255 @@
         <v>50007</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>50008</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="6">
+        <v>70001</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="6">
+        <v>71001</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="7">
+        <v>71002</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="9">
+        <v>70002</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="9">
+        <v>71003</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="7">
+        <v>70003</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="7">
+        <v>70004</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="7">
+        <v>70005</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="7">
+        <v>70006</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="7">
+        <v>71004</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="7">
+        <v>71005</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D92" s="6" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="7">
+        <v>71006</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="6">
+        <v>71007</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="6">
+        <v>71008</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="6">
+        <v>71009</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="6">
+        <v>71010</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Error-codes.xlsx
+++ b/Error-codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\ONDC\ONDC-SRV-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6AF4B-BD0E-4D4F-894C-D39AB2C92C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C81A51-66E6-4435-A956-FEAE3048166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -646,9 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1121,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93405F62-E538-4EAC-8717-0B01DC84D721}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6">
-        <v>70001</v>
+        <v>90004</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>121</v>
@@ -2287,7 +2284,7 @@
     </row>
     <row r="83" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6">
-        <v>71001</v>
+        <v>90005</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>123</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="84" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7">
-        <v>71002</v>
+        <v>90006</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>123</v>
@@ -2314,36 +2311,36 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="9">
-        <v>70002</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="A85" s="6">
+        <v>90007</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="9">
-        <v>71003</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="A86" s="6">
+        <v>90008</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7">
-        <v>70003</v>
+        <v>90009</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>123</v>
@@ -2356,8 +2353,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="7">
-        <v>70004</v>
+      <c r="A88" s="6">
+        <v>90010</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>123</v>
@@ -2370,8 +2367,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="7">
-        <v>70005</v>
+      <c r="A89" s="6">
+        <v>90011</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>123</v>
@@ -2385,7 +2382,7 @@
     </row>
     <row r="90" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="7">
-        <v>70006</v>
+        <v>90012</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>123</v>
@@ -2398,10 +2395,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="7">
-        <v>71004</v>
-      </c>
-      <c r="B91" s="13" t="s">
+      <c r="A91" s="6">
+        <v>90013</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -2412,10 +2409,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="7">
-        <v>71005</v>
-      </c>
-      <c r="B92" s="13" t="s">
+      <c r="A92" s="6">
+        <v>90014</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -2427,9 +2424,9 @@
     </row>
     <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="7">
-        <v>71006</v>
-      </c>
-      <c r="B93" s="13" t="s">
+        <v>90015</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -2441,9 +2438,9 @@
     </row>
     <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
-        <v>71007</v>
-      </c>
-      <c r="B94" s="13" t="s">
+        <v>90016</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -2455,9 +2452,9 @@
     </row>
     <row r="95" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
-        <v>71008</v>
-      </c>
-      <c r="B95" s="13" t="s">
+        <v>90017</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -2468,10 +2465,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="6">
-        <v>71009</v>
-      </c>
-      <c r="B96" s="13" t="s">
+      <c r="A96" s="7">
+        <v>90018</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -2483,9 +2480,9 @@
     </row>
     <row r="97" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6">
-        <v>71010</v>
-      </c>
-      <c r="B97" s="13" t="s">
+        <v>90019</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C97" s="6" t="s">
